--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>type</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>deal_companys</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -720,7 +732,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,10 +785,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +847,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>product-bridge</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -738,7 +747,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,9 +870,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,17 +898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>type</t>
   </si>
@@ -115,10 +115,16 @@
     <t>product-bridge</t>
   </si>
   <si>
-    <t>product_id</t>
-  </si>
-  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_bridge_parent_id </t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>agency</t>
   </si>
 </sst>
 </file>
@@ -747,13 +753,13 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -875,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -889,16 +895,29 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1052,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>type</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>agency</t>
+  </si>
+  <si>
+    <t>product_id</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,8 +921,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>product_id</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>category_variation</t>
+  </si>
+  <si>
+    <t>product_bridge_variation</t>
+  </si>
+  <si>
+    <t>product_bridge_variation_option</t>
   </si>
 </sst>
 </file>
@@ -756,7 +768,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,9 +961,48 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>type</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>product_bridge_variation_option</t>
+  </si>
+  <si>
+    <t>col</t>
   </si>
 </sst>
 </file>
@@ -765,10 +768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,83 +1017,88 @@
     <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
@@ -1109,26 +1117,20 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
+    <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1141,7 +1143,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F113"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,11 +1169,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>product_bridge_channel</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1009,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="create-fields" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>type</t>
   </si>
@@ -146,6 +146,45 @@
   </si>
   <si>
     <t>product_bridge_channel</t>
+  </si>
+  <si>
+    <t>pricing-rule</t>
+  </si>
+  <si>
+    <t>coupon_code</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>product_bridge_id</t>
+  </si>
+  <si>
+    <t>discount_type</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>discount_value</t>
+  </si>
+  <si>
+    <t>discount_percentage</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -773,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,6 +1462,91 @@
       </c>
       <c r="F1" s="1"/>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>channel_id</t>
+  </si>
+  <si>
+    <t>filter_by_channel</t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,21 +1519,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>52</v>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1541,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>51</v>
@@ -1544,6 +1550,23 @@
         <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
